--- a/res/page/优惠管理/BusinessPage.xlsx
+++ b/res/page/优惠管理/BusinessPage.xlsx
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,74 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,17 +245,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +343,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -367,8 +358,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +389,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,169 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,21 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +680,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,137 +715,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,9 +853,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1214,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1255,7 +1252,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1266,7 +1263,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1277,7 +1274,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1288,7 +1285,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1299,7 +1296,7 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1310,7 +1307,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1321,7 +1318,7 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1332,7 +1329,7 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1343,7 +1340,7 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1354,7 +1351,7 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1365,7 +1362,7 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1376,7 +1373,7 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1387,7 +1384,7 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1398,7 +1395,7 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1409,7 +1406,7 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1420,7 +1417,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1431,7 +1428,7 @@
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1442,7 +1439,7 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1453,7 +1450,7 @@
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1464,7 +1461,7 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1475,7 +1472,7 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1491,24 +1488,24 @@
       </c>
     </row>
     <row r="25" ht="29" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" ht="29" customHeight="1" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1546,13 +1543,13 @@
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>61</v>
       </c>
     </row>

--- a/res/page/优惠管理/BusinessPage.xlsx
+++ b/res/page/优惠管理/BusinessPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>别名</t>
   </si>
@@ -66,6 +66,18 @@
     <t>//*[@id="app"]//a[contains(text(), "导入")]</t>
   </si>
   <si>
+    <t>选择文件</t>
+  </si>
+  <si>
+    <t>//label[text()='选择文件']/following-sibling::*[1]/input</t>
+  </si>
+  <si>
+    <t>导入显示框</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']</t>
+  </si>
+  <si>
     <t>导出</t>
   </si>
   <si>
@@ -202,6 +214,12 @@
   </si>
   <si>
     <t>//*[@id="couponTraderTable"]//div[@class='el-table__fixed']</t>
+  </si>
+  <si>
+    <t>取消-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'取消')]</t>
   </si>
 </sst>
 </file>
@@ -230,8 +248,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +346,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -252,123 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +413,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,55 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,109 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +631,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -624,35 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +693,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1465,7 +1483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="32" customHeight="1" spans="1:3">
+    <row r="23" ht="33" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1476,18 +1494,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="32" customHeight="1" spans="1:3">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="33" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="29" customHeight="1" spans="1:3">
+    <row r="25" ht="32" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1498,36 +1516,36 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="29" customHeight="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="26" ht="32" customHeight="1" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1" spans="1:3">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="29" customHeight="1" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="27" customHeight="1" spans="1:3">
-      <c r="A28" s="2" t="s">
+    <row r="28" ht="29" customHeight="1" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1543,14 +1561,47 @@
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
